--- a/August Overtime Calculator Auto .xlsx
+++ b/August Overtime Calculator Auto .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dineth Pansilu\Desktop\FLI-SUPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D246E1-3050-4697-B2F0-7C0E40A13F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4EEC10-296E-44E8-AC6C-83CECFC4A56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,8 +186,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="170" formatCode="&quot;Rs. &quot;0.00"/>
-    <numFmt numFmtId="172" formatCode="h\ &quot;H&quot;\ :\ mm\ &quot;Min&quot;;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rs. &quot;0.00"/>
+    <numFmt numFmtId="167" formatCode="h\ &quot;H&quot;\ :\ mm\ &quot;Min&quot;;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -353,31 +353,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -403,11 +384,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,11 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,62 +726,59 @@
     <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24">
         <v>30000</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="F1" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="27" t="str">
+      <c r="H3" s="18" t="str">
         <f>"Overtime Pay("&amp;E1/160&amp;" Per Hour)"</f>
         <v>Overtime Pay(187.5 Per Hour)</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="7">
         <f>_xlfn.LET(
     _xlpm.X, VALUE(RIGHT(B4,2)),
     _xlpm.H, VALUE(LEFT(B4,2)),
@@ -804,15 +795,15 @@
 )</f>
         <v>0.3125</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="7">
         <f>IFERROR(TIME(LEFT(C4,2),RIGHT(C4,2),0),"")</f>
         <v>0.72916666666666663</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="8">
         <f>IFERROR(E4-D4,"")</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="8">
         <f>_xlfn.LET(
     _xlpm.X, MAX(F4-TIME(9,0,0),0),
     _xlpm.Y, INT(_xlpm.X/TIME(0,15,0)),
@@ -821,19 +812,19 @@
 )</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H4" s="28">
-        <f>IFERROR(G4*24*E1/160,"")</f>
+      <c r="H4" s="19">
+        <f>IFERROR(G4*24*$E$1/160,"")</f>
         <v>187.5</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20" t="str">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D34" si="0">_xlfn.LET(
     _xlpm.X, VALUE(RIGHT(B5,2)),
     _xlpm.H, VALUE(LEFT(B5,2)),
@@ -850,15 +841,15 @@
 )</f>
         <v/>
       </c>
-      <c r="E5" s="20" t="str">
+      <c r="E5" s="11" t="str">
         <f t="shared" ref="E5:E34" si="1">IFERROR(TIME(LEFT(C5,2),RIGHT(C5,2),0),"")</f>
         <v/>
       </c>
-      <c r="F5" s="21" t="str">
+      <c r="F5" s="12" t="str">
         <f t="shared" ref="F5:F34" si="2">IFERROR(E5-D5,"")</f>
         <v/>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="12" t="str">
         <f t="shared" ref="G5:G34" si="3">_xlfn.LET(
     _xlpm.X, MAX(F5-TIME(9,0,0),0),
     _xlpm.Y, INT(_xlpm.X/TIME(0,15,0)),
@@ -867,826 +858,815 @@
 )</f>
         <v/>
       </c>
-      <c r="H5" s="29" t="str">
-        <f t="shared" ref="H5:H33" si="4">IFERROR(G5*24*E2/160,"")</f>
+      <c r="H5" s="19" t="str">
+        <f t="shared" ref="H5:H34" si="4">IFERROR(G5*24*$E$1/160,"")</f>
         <v/>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E6" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F6" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G6" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H6" s="28" t="str">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H6" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F7" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G7" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H7" s="28" t="str">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G7" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H7" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F8" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G8" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H8" s="28" t="str">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H8" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F9" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G9" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H9" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H9" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G10" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H10" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H10" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F11" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G11" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H11" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G12" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H12" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G13" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H13" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H14" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G15" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H15" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H15" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F16" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G16" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H16" s="28" t="str">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G16" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H16" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F17" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G17" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H17" s="28" t="str">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H17" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G18" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H18" s="28" t="str">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H18" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F19" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G19" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H19" s="28" t="str">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H19" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G20" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H20" s="28" t="str">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H20" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G21" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H21" s="28" t="str">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H21" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F22" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G22" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H22" s="28" t="str">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H22" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G23" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H23" s="28" t="str">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H23" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G24" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H24" s="28" t="str">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H24" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G25" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H25" s="28" t="str">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H25" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G26" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H26" s="28" t="str">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H26" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E27" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F27" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G27" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H27" s="28" t="str">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H27" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E28" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F28" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G28" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H28" s="28" t="str">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H28" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G29" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H29" s="28" t="str">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H29" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E30" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G30" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H30" s="28" t="str">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H30" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E31" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G31" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H31" s="28" t="str">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E32" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G32" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H32" s="28" t="str">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H32" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E33" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G33" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H33" s="28" t="str">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H33" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G34" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H34" s="28" t="str">
-        <f t="shared" ref="H5:H34" si="5">IFERROR(G34*24*187.5,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="30"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H34" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="33">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="22">
         <f>SUM(F4:F34)</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="21">
         <f>SUM(G4:G34)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="20">
         <f>ROUND(SUM(H4:H34),2)</f>
         <v>187.5</v>
       </c>
